--- a/RACINGLINE/racingline_code/racingline_base.xlsx
+++ b/RACINGLINE/racingline_code/racingline_base.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilbe\Documents\catalogos\RACINGLINE\racingline_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDA75AF-EDED-4BEE-B3E6-7D2B63947346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6D07F4-9D03-4512-A0F2-122254BC95C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="2580" windowWidth="26145" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="June 2023" sheetId="1" r:id="rId1"/>
+    <sheet name="online" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="843">
   <si>
     <t>Product Name:</t>
   </si>
@@ -2541,6 +2542,27 @@
   </si>
   <si>
     <t>DEALER DISCOUNT</t>
+  </si>
+  <si>
+    <t>MMR37-1501-70B</t>
+  </si>
+  <si>
+    <t>MMR37-1501-70C</t>
+  </si>
+  <si>
+    <t>RLP-Spec</t>
+  </si>
+  <si>
+    <t>VWR123020</t>
+  </si>
+  <si>
+    <t>VWR12G7R600SPAF</t>
+  </si>
+  <si>
+    <t>VWR14G7IS38CORE</t>
+  </si>
+  <si>
+    <t>VWR650000-CHR</t>
   </si>
 </sst>
 </file>
@@ -2548,9 +2570,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* &quot;-&quot;??\ [$€-816]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* &quot;-&quot;??\ [$€-816]_-;_-@_-"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2654,6 +2676,11 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2823,11 +2850,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2841,27 +2869,27 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2881,9 +2909,12 @@
     <xf numFmtId="9" fontId="15" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{CBB2DC81-5262-403B-B735-C8DF0F3F49A5}"/>
     <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3103,7 +3134,7 @@
   </sheetPr>
   <dimension ref="A1:Y600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -5375,7 +5406,7 @@
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" ht="18">
       <c r="A59" s="4" t="s">
         <v>120</v>
       </c>
@@ -6857,7 +6888,7 @@
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
     </row>
-    <row r="97" spans="1:22">
+    <row r="97" spans="1:22" ht="18">
       <c r="A97" s="4" t="s">
         <v>197</v>
       </c>
@@ -7598,7 +7629,7 @@
       <c r="U115" s="3"/>
       <c r="V115" s="3"/>
     </row>
-    <row r="116" spans="1:22">
+    <row r="116" spans="1:22" ht="18">
       <c r="A116" s="4" t="s">
         <v>236</v>
       </c>
@@ -8300,7 +8331,7 @@
       <c r="U133" s="3"/>
       <c r="V133" s="3"/>
     </row>
-    <row r="134" spans="1:22">
+    <row r="134" spans="1:22" ht="18">
       <c r="A134" s="4" t="s">
         <v>273</v>
       </c>
@@ -9002,7 +9033,7 @@
       <c r="U151" s="3"/>
       <c r="V151" s="3"/>
     </row>
-    <row r="152" spans="1:22">
+    <row r="152" spans="1:22" ht="18">
       <c r="A152" s="4" t="s">
         <v>310</v>
       </c>
@@ -11618,7 +11649,7 @@
       <c r="U218" s="3"/>
       <c r="V218" s="3"/>
     </row>
-    <row r="219" spans="1:25">
+    <row r="219" spans="1:25" ht="18">
       <c r="A219" s="4" t="s">
         <v>445</v>
       </c>
@@ -12866,7 +12897,7 @@
       <c r="U250" s="3"/>
       <c r="V250" s="3"/>
     </row>
-    <row r="251" spans="1:22">
+    <row r="251" spans="1:22" ht="18">
       <c r="A251" s="6" t="s">
         <v>511</v>
       </c>
@@ -13451,7 +13482,7 @@
       <c r="U265" s="3"/>
       <c r="V265" s="3"/>
     </row>
-    <row r="266" spans="1:22">
+    <row r="266" spans="1:22" ht="18">
       <c r="A266" s="4" t="s">
         <v>541</v>
       </c>
@@ -14699,7 +14730,7 @@
       <c r="U297" s="3"/>
       <c r="V297" s="3"/>
     </row>
-    <row r="298" spans="1:22">
+    <row r="298" spans="1:22" ht="18">
       <c r="A298" s="4" t="s">
         <v>604</v>
       </c>
@@ -16922,7 +16953,7 @@
       <c r="U354" s="3"/>
       <c r="V354" s="3"/>
     </row>
-    <row r="355" spans="1:22">
+    <row r="355" spans="1:22" ht="18">
       <c r="A355" s="6" t="s">
         <v>720</v>
       </c>
@@ -18029,7 +18060,7 @@
       <c r="U382" s="3"/>
       <c r="V382" s="3"/>
     </row>
-    <row r="383" spans="1:25">
+    <row r="383" spans="1:25" ht="18">
       <c r="A383" s="6" t="s">
         <v>777</v>
       </c>
@@ -23707,4 +23738,2048 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFADAD30-4BD4-4D61-8AF2-DFF24C9278B2}">
+  <dimension ref="A1:E405"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="29" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="29" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="29" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" s="29" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" s="29" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15">
+      <c r="A6" s="29" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15">
+      <c r="A7" s="29" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" s="29" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" s="29" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" s="29" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="29" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="29" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13" s="29" t="s">
+        <v>777</v>
+      </c>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14" s="29" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15">
+      <c r="A15" s="29" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15">
+      <c r="A16" s="29" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15">
+      <c r="A17" s="29" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15">
+      <c r="A18" s="29" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15">
+      <c r="A19" s="29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15">
+      <c r="A20" s="29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15">
+      <c r="A21" s="29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15">
+      <c r="A22" s="29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15">
+      <c r="A23" s="29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15">
+      <c r="A24" s="29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15">
+      <c r="A25" s="29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15">
+      <c r="A26" s="29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15">
+      <c r="A27" s="29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15">
+      <c r="A28" s="29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15">
+      <c r="A29" s="29" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15">
+      <c r="A30" s="29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15">
+      <c r="A31" s="29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15">
+      <c r="A32" s="29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15">
+      <c r="A33" s="29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15">
+      <c r="A34" s="29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15">
+      <c r="A35" s="29" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15">
+      <c r="A36" s="29" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15">
+      <c r="A37" s="29" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15">
+      <c r="A38" s="29" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15">
+      <c r="A39" s="29" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15">
+      <c r="A40" s="29" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15">
+      <c r="A41" s="29" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15">
+      <c r="A42" s="29" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15">
+      <c r="A43" s="29" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15">
+      <c r="A44" s="29" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15">
+      <c r="A45" s="29" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15">
+      <c r="A46" s="29" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15">
+      <c r="A47" s="29" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15">
+      <c r="A48" s="29" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15">
+      <c r="A49" s="29" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15">
+      <c r="A50" s="29" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15">
+      <c r="A51" s="29" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15">
+      <c r="A52" s="29" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15">
+      <c r="A53" s="29" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15">
+      <c r="A54" s="29" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15">
+      <c r="A55" s="29" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15">
+      <c r="A56" s="29" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15">
+      <c r="A57" s="29" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15">
+      <c r="A58" s="29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15">
+      <c r="A59" s="29" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15">
+      <c r="A60" s="29" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15">
+      <c r="A61" s="29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15">
+      <c r="A62" s="29" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15">
+      <c r="A63" s="29" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15">
+      <c r="A64" s="29" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15">
+      <c r="A65" s="29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15">
+      <c r="A66" s="29" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15">
+      <c r="A67" s="29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15">
+      <c r="A68" s="29" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15">
+      <c r="A69" s="29" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15">
+      <c r="A70" s="29" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15">
+      <c r="A71" s="29" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15">
+      <c r="A72" s="29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15">
+      <c r="A73" s="29" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15">
+      <c r="A74" s="29" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15">
+      <c r="A75" s="29" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15">
+      <c r="A76" s="29" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15">
+      <c r="A77" s="29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15">
+      <c r="A78" s="29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15">
+      <c r="A79" s="29" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="15">
+      <c r="A80" s="29" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15">
+      <c r="A81" s="29" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15">
+      <c r="A82" s="29" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15">
+      <c r="A83" s="29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15">
+      <c r="A84" s="29" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15">
+      <c r="A85" s="29" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15">
+      <c r="A86" s="29" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15">
+      <c r="A87" s="29" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15">
+      <c r="A88" s="29" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15">
+      <c r="A89" s="29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="15">
+      <c r="A90" s="29" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15">
+      <c r="A91" s="29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15">
+      <c r="A92" s="29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15">
+      <c r="A93" s="29" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15">
+      <c r="A94" s="29" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15">
+      <c r="A95" s="29" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15">
+      <c r="A96" s="29" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15">
+      <c r="A97" s="29" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15">
+      <c r="A98" s="29" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15">
+      <c r="A99" s="29" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15">
+      <c r="A100" s="29" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15">
+      <c r="A101" s="29" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15">
+      <c r="A102" s="29" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="15">
+      <c r="A103" s="29" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15">
+      <c r="A104" s="29" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="15">
+      <c r="A105" s="29" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="15">
+      <c r="A106" s="29" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="15">
+      <c r="A107" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="15">
+      <c r="A108" s="29" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="15">
+      <c r="A109" s="29" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="15">
+      <c r="A110" s="29" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="15">
+      <c r="A111" s="29" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15">
+      <c r="A112" s="29" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="15">
+      <c r="A113" s="29" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="15">
+      <c r="A114" s="29" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="15">
+      <c r="A115" s="29" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="15">
+      <c r="A116" s="29" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="15">
+      <c r="A117" s="29" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="15">
+      <c r="A118" s="29" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="15">
+      <c r="A119" s="29" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="15">
+      <c r="A120" s="29" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="15">
+      <c r="A121" s="29" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="15">
+      <c r="A122" s="29" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="15">
+      <c r="A123" s="29" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="15">
+      <c r="A124" s="29" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="15">
+      <c r="A125" s="29" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="15">
+      <c r="A126" s="29" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="15">
+      <c r="A127" s="29" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="15">
+      <c r="A128" s="29" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="15">
+      <c r="A129" s="29" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="15">
+      <c r="A130" s="29" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="15">
+      <c r="A131" s="29" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="15">
+      <c r="A132" s="29" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="15">
+      <c r="A133" s="29" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="15">
+      <c r="A134" s="29" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="15">
+      <c r="A135" s="29" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="15">
+      <c r="A136" s="29" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="15">
+      <c r="A137" s="29" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="15">
+      <c r="A138" s="29" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="15">
+      <c r="A139" s="29" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="15">
+      <c r="A140" s="29" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="15">
+      <c r="A141" s="29" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="15">
+      <c r="A142" s="29" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="15">
+      <c r="A143" s="29" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="15">
+      <c r="A144" s="29" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="15">
+      <c r="A145" s="29" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="15">
+      <c r="A146" s="29" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="15">
+      <c r="A147" s="29" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="15">
+      <c r="A148" s="29" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="15">
+      <c r="A149" s="29" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="15">
+      <c r="A150" s="29" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="15">
+      <c r="A151" s="29" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="15">
+      <c r="A152" s="29" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="15">
+      <c r="A153" s="29" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="15">
+      <c r="A154" s="29" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="15">
+      <c r="A155" s="29" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="15">
+      <c r="A156" s="29" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="15">
+      <c r="A157" s="29" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="15">
+      <c r="A158" s="29" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="15">
+      <c r="A159" s="29" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="15">
+      <c r="A160" s="29" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="15">
+      <c r="A161" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="15">
+      <c r="A162" s="29" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="15">
+      <c r="A163" s="29" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="15">
+      <c r="A164" s="29" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="15">
+      <c r="A165" s="29" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="15">
+      <c r="A166" s="29" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="15">
+      <c r="A167" s="29" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="15">
+      <c r="A168" s="29" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="15">
+      <c r="A169" s="29" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="15">
+      <c r="A170" s="29" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="15">
+      <c r="A171" s="29" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="15">
+      <c r="A172" s="29" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="15">
+      <c r="A173" s="29" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="15">
+      <c r="A174" s="29" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="15">
+      <c r="A175" s="29" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="15">
+      <c r="A176" s="29" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="15">
+      <c r="A177" s="29" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="15">
+      <c r="A178" s="29" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="15">
+      <c r="A179" s="29" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="15">
+      <c r="A180" s="29" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="15">
+      <c r="A181" s="29" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="15">
+      <c r="A182" s="29" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="15">
+      <c r="A183" s="29" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="15">
+      <c r="A184" s="29" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="15">
+      <c r="A185" s="29" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="15">
+      <c r="A186" s="29" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="15">
+      <c r="A187" s="29" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="15">
+      <c r="A188" s="29" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="15">
+      <c r="A189" s="29" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="15">
+      <c r="A190" s="29" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="15">
+      <c r="A191" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="15">
+      <c r="A192" s="29" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="15">
+      <c r="A193" s="29" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="15">
+      <c r="A194" s="29" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="15">
+      <c r="A195" s="29" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="15">
+      <c r="A196" s="29" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="15">
+      <c r="A197" s="29" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="15">
+      <c r="A198" s="29" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="15">
+      <c r="A199" s="29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="15">
+      <c r="A200" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="15">
+      <c r="A201" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="15">
+      <c r="A202" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="15">
+      <c r="A203" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="15">
+      <c r="A204" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="15">
+      <c r="A205" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="15">
+      <c r="A206" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="15">
+      <c r="A207" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="15">
+      <c r="A208" s="29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="15">
+      <c r="A209" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="15">
+      <c r="A210" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="15">
+      <c r="A211" s="29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="15">
+      <c r="A212" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="15">
+      <c r="A213" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="15">
+      <c r="A214" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="15">
+      <c r="A215" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="15">
+      <c r="A216" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="15">
+      <c r="A217" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="15">
+      <c r="A218" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="15">
+      <c r="A219" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="15">
+      <c r="A220" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="15">
+      <c r="A221" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="15">
+      <c r="A222" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="15">
+      <c r="A223" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="15">
+      <c r="A224" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="15">
+      <c r="A225" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="15">
+      <c r="A226" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="15">
+      <c r="A227" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" ht="15">
+      <c r="A228" s="29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="15">
+      <c r="A229" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="15">
+      <c r="A230" s="29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="15">
+      <c r="A231" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="15">
+      <c r="A232" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="15">
+      <c r="A233" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="15">
+      <c r="A234" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="15">
+      <c r="A235" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="15">
+      <c r="A236" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" ht="15">
+      <c r="A237" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="15">
+      <c r="A238" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="15">
+      <c r="A239" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="15">
+      <c r="A240" s="29" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" ht="15">
+      <c r="A241" s="29" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" ht="15">
+      <c r="A242" s="29" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" ht="15">
+      <c r="A243" s="29" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="15">
+      <c r="A244" s="29" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" ht="15">
+      <c r="A245" s="29" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" ht="15">
+      <c r="A246" s="29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" ht="15">
+      <c r="A247" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" ht="15">
+      <c r="A248" s="29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="15">
+      <c r="A249" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="15">
+      <c r="A250" s="29" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="15">
+      <c r="A251" s="29" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" ht="15">
+      <c r="A252" s="29" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" ht="15">
+      <c r="A253" s="29" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" ht="15">
+      <c r="A254" s="29" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" ht="15">
+      <c r="A255" s="29" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" ht="15">
+      <c r="A256" s="29" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" ht="15">
+      <c r="A257" s="29" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="15">
+      <c r="A258" s="29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="15">
+      <c r="A259" s="29" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="15">
+      <c r="A260" s="29" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="15">
+      <c r="A261" s="29" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="15">
+      <c r="A262" s="29" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" ht="15">
+      <c r="A263" s="29" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" ht="15">
+      <c r="A264" s="29" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" ht="15">
+      <c r="A265" s="29" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" ht="15">
+      <c r="A266" s="29" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" ht="15">
+      <c r="A267" s="29" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" ht="15">
+      <c r="A268" s="29" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" ht="15">
+      <c r="A269" s="29" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" ht="15">
+      <c r="A270" s="29" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" ht="15">
+      <c r="A271" s="29" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="15">
+      <c r="A272" s="29" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" ht="15">
+      <c r="A273" s="29" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" ht="15">
+      <c r="A274" s="29" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" ht="15">
+      <c r="A275" s="29" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" ht="15">
+      <c r="A276" s="29" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" ht="15">
+      <c r="A277" s="29" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" ht="15">
+      <c r="A278" s="29" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" ht="15">
+      <c r="A279" s="29" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" ht="15">
+      <c r="A280" s="29" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" ht="15">
+      <c r="A281" s="29" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" ht="15">
+      <c r="A282" s="29" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" ht="15">
+      <c r="A283" s="29" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" ht="15">
+      <c r="A284" s="29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" ht="15">
+      <c r="A285" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" ht="15">
+      <c r="A286" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" ht="15">
+      <c r="A287" s="29" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" ht="15">
+      <c r="A288" s="29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" ht="15">
+      <c r="A289" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" ht="15">
+      <c r="A290" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" ht="15">
+      <c r="A291" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" ht="15">
+      <c r="A292" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" ht="15">
+      <c r="A293" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" ht="15">
+      <c r="A294" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" ht="15">
+      <c r="A295" s="29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" ht="15">
+      <c r="A296" s="29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" ht="15">
+      <c r="A297" s="29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" ht="15">
+      <c r="A298" s="29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" ht="15">
+      <c r="A299" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" ht="15">
+      <c r="A300" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" ht="15">
+      <c r="A301" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" ht="15">
+      <c r="A302" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" ht="15">
+      <c r="A303" s="29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" ht="15">
+      <c r="A304" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" ht="15">
+      <c r="A305" s="29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" ht="15">
+      <c r="A306" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" ht="15">
+      <c r="A307" s="29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" ht="15">
+      <c r="A308" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" ht="15">
+      <c r="A309" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" ht="15">
+      <c r="A310" s="29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" ht="15">
+      <c r="A311" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" ht="15">
+      <c r="A312" s="29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" ht="15">
+      <c r="A313" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" ht="15">
+      <c r="A314" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" ht="15">
+      <c r="A315" s="29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" ht="15">
+      <c r="A316" s="29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" ht="15">
+      <c r="A317" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" ht="15">
+      <c r="A318" s="29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" ht="15">
+      <c r="A319" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" ht="15">
+      <c r="A320" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" ht="15">
+      <c r="A321" s="29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" ht="15">
+      <c r="A322" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" ht="15">
+      <c r="A323" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" ht="15">
+      <c r="A324" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" ht="15">
+      <c r="A325" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" ht="15">
+      <c r="A326" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" ht="15">
+      <c r="A327" s="29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" ht="15">
+      <c r="A328" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" ht="15">
+      <c r="A329" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" ht="15">
+      <c r="A330" s="29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" ht="15">
+      <c r="A331" s="29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" ht="15">
+      <c r="A332" s="29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" ht="15">
+      <c r="A333" s="29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" ht="15">
+      <c r="A334" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" ht="15">
+      <c r="A335" s="29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" ht="15">
+      <c r="A336" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" ht="15">
+      <c r="A337" s="29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" ht="15">
+      <c r="A338" s="29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" ht="15">
+      <c r="A339" s="29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" ht="15">
+      <c r="A340" s="29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" ht="15">
+      <c r="A341" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" ht="15">
+      <c r="A342" s="29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" ht="15">
+      <c r="A343" s="29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" ht="15">
+      <c r="A344" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" ht="15">
+      <c r="A345" s="29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" ht="15">
+      <c r="A346" s="29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" ht="15">
+      <c r="A347" s="29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" ht="15">
+      <c r="A348" s="29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" ht="15">
+      <c r="A349" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" ht="15">
+      <c r="A350" s="29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" ht="15">
+      <c r="A351" s="29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" ht="15">
+      <c r="A352" s="29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" ht="15">
+      <c r="A353" s="29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" ht="15">
+      <c r="A354" s="29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" ht="15">
+      <c r="A355" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" ht="15">
+      <c r="A356" s="29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" ht="15">
+      <c r="A357" s="29" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" ht="15">
+      <c r="A358" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" ht="15">
+      <c r="A359" s="29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" ht="15">
+      <c r="A360" s="29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" ht="15">
+      <c r="A361" s="29" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" ht="15">
+      <c r="A362" s="29" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" ht="15">
+      <c r="A363" s="29" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" ht="15">
+      <c r="A364" s="29" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" ht="15">
+      <c r="A365" s="29" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" ht="15">
+      <c r="A366" s="29" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" ht="15">
+      <c r="A367" s="29" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" ht="15">
+      <c r="A368" s="29" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" ht="15">
+      <c r="A369" s="29" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" ht="15">
+      <c r="A370" s="29" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" ht="15">
+      <c r="A371" s="29" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" ht="15">
+      <c r="A372" s="29" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" ht="15">
+      <c r="A373" s="29" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" ht="15">
+      <c r="A374" s="29" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" ht="15">
+      <c r="A375" s="29" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" ht="15">
+      <c r="A376" s="29" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" ht="15">
+      <c r="A377" s="29" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" ht="15">
+      <c r="A378" s="29" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" ht="15">
+      <c r="A379" s="29" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" ht="15">
+      <c r="A380" s="29" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" ht="15">
+      <c r="A381" s="29" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" ht="15">
+      <c r="A382" s="29" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" ht="15">
+      <c r="A383" s="29" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" ht="15">
+      <c r="A384" s="29" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" ht="15">
+      <c r="A385" s="29" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" ht="15">
+      <c r="A386" s="29" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" ht="15">
+      <c r="A387" s="29" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" ht="15">
+      <c r="A388" s="29" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" ht="15">
+      <c r="A389" s="29" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" ht="15">
+      <c r="A390" s="29" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" ht="15">
+      <c r="A391" s="29" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" ht="15">
+      <c r="A392" s="29" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" ht="15">
+      <c r="A393" s="29" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" ht="15">
+      <c r="A394" s="29" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" ht="15">
+      <c r="A395" s="29" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" ht="15">
+      <c r="A396" s="29" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" ht="15">
+      <c r="A397" s="29" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" ht="15">
+      <c r="A398" s="29" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" ht="15">
+      <c r="A399" s="29" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" ht="15">
+      <c r="A400" s="29" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" ht="15">
+      <c r="A401" s="29" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" ht="15">
+      <c r="A402" s="29" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" ht="15">
+      <c r="A403" s="29" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" ht="15">
+      <c r="A404" s="29" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" ht="15">
+      <c r="A405" s="29" t="s">
+        <v>832</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>